--- a/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>121591</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103146</v>
+        <v>102453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140723</v>
+        <v>141262</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.246103260265671</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2087697199511061</v>
+        <v>0.2073673233816878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.284827804360542</v>
+        <v>0.2859176458167812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -765,19 +765,19 @@
         <v>184320</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164478</v>
+        <v>162769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204168</v>
+        <v>203878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3942759329896712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3518336841098026</v>
+        <v>0.3481775909409482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4367326875872113</v>
+        <v>0.4361135141672378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>320</v>
@@ -786,19 +786,19 @@
         <v>305910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>278124</v>
+        <v>278283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332736</v>
+        <v>335303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3181420466531137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2892446671648702</v>
+        <v>0.2894100618959626</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.346040607086799</v>
+        <v>0.3487097848771172</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>372473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353341</v>
+        <v>352802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390918</v>
+        <v>391611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.753896739734329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.715172195639458</v>
+        <v>0.714082354183219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7912302800488941</v>
+        <v>0.7926326766183122</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -836,19 +836,19 @@
         <v>283169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263321</v>
+        <v>263611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303011</v>
+        <v>304720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6057240670103288</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5632673124127887</v>
+        <v>0.5638864858327621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6481663158901974</v>
+        <v>0.6518224090590519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>668</v>
@@ -857,19 +857,19 @@
         <v>655643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628817</v>
+        <v>626250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>683429</v>
+        <v>683270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6818579533468863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6539593929132013</v>
+        <v>0.6512902151228829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7107553328351297</v>
+        <v>0.7105899381040377</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>227109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202986</v>
+        <v>198747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253445</v>
+        <v>252627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3087863709931338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2759871947019913</v>
+        <v>0.2702241574772412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3445936188509444</v>
+        <v>0.3434813194766728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>267</v>
@@ -982,19 +982,19 @@
         <v>281309</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>256007</v>
+        <v>258083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>306538</v>
+        <v>308540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4497383370024264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4092870445662873</v>
+        <v>0.4126063326500291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4900730886887814</v>
+        <v>0.4932742038890351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>489</v>
@@ -1003,19 +1003,19 @@
         <v>508417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>474129</v>
+        <v>472902</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>546487</v>
+        <v>543748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3735664751559784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3483725854223514</v>
+        <v>0.34747093696889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.401538493666296</v>
+        <v>0.3995264725336981</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>508380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>482044</v>
+        <v>482862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>532503</v>
+        <v>536742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6912136290068661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6554063811490556</v>
+        <v>0.6565186805233273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7240128052980088</v>
+        <v>0.7297758425227588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>324</v>
@@ -1053,19 +1053,19 @@
         <v>344185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318956</v>
+        <v>316954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369487</v>
+        <v>367411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5502616629975736</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5099269113112186</v>
+        <v>0.5067257961109649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5907129554337127</v>
+        <v>0.5873936673499709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>805</v>
@@ -1074,19 +1074,19 @@
         <v>852565</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>814495</v>
+        <v>817234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>886853</v>
+        <v>888080</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6264335248440216</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5984615063337043</v>
+        <v>0.6004735274663021</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6516274145776486</v>
+        <v>0.65252906303111</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>235449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211266</v>
+        <v>212680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>260943</v>
+        <v>260847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.368656551233071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3307915024800555</v>
+        <v>0.3330049385498025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4085732875147917</v>
+        <v>0.4084234498639056</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>366</v>
@@ -1199,19 +1199,19 @@
         <v>385357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>357346</v>
+        <v>357913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>411526</v>
+        <v>411875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5586957555806882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5180855242762985</v>
+        <v>0.518907717235313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.596636487986398</v>
+        <v>0.5971425004470549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>590</v>
@@ -1220,19 +1220,19 @@
         <v>620806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>584680</v>
+        <v>584704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>657270</v>
+        <v>658889</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4673296024653632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4401341728902892</v>
+        <v>0.4401529270897275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4947786434198236</v>
+        <v>0.4959973178575896</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>403219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>377725</v>
+        <v>377821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427402</v>
+        <v>425988</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6313434487669289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5914267124852083</v>
+        <v>0.5915765501360944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6692084975199445</v>
+        <v>0.6669950614501975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -1270,19 +1270,19 @@
         <v>304387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>278218</v>
+        <v>277869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332398</v>
+        <v>331831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4413042444193118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.403363512013602</v>
+        <v>0.4028574995529453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4819144757237017</v>
+        <v>0.4810922827646874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>681</v>
@@ -1291,19 +1291,19 @@
         <v>707606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671142</v>
+        <v>669523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>743732</v>
+        <v>743708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5326703975346367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5052213565801764</v>
+        <v>0.5040026821424103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5598658271097108</v>
+        <v>0.5598470729102724</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>264498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>241593</v>
+        <v>240761</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>288166</v>
+        <v>286993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5094848754782859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4653658661338676</v>
+        <v>0.4637633174483619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5550760733889621</v>
+        <v>0.5528158035870817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -1416,19 +1416,19 @@
         <v>343491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>320195</v>
+        <v>319705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>364481</v>
+        <v>363711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6661424734385888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6209638272035894</v>
+        <v>0.62001423132565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7068489047407979</v>
+        <v>0.7053560958127336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>589</v>
@@ -1437,19 +1437,19 @@
         <v>607989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>573946</v>
+        <v>578229</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>639963</v>
+        <v>641054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5875483579878358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5546499872383043</v>
+        <v>0.5587894027427545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.618448044316648</v>
+        <v>0.6195023943663021</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>254649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>230981</v>
+        <v>232154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277554</v>
+        <v>278386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.490515124521714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4449239266110381</v>
+        <v>0.4471841964129183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5346341338661329</v>
+        <v>0.5362366825516383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1487,19 +1487,19 @@
         <v>172151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151161</v>
+        <v>151931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195447</v>
+        <v>195937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3338575265614112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2931510952592021</v>
+        <v>0.2946439041872664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3790361727964106</v>
+        <v>0.3799857686743499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>397</v>
@@ -1508,19 +1508,19 @@
         <v>426800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394826</v>
+        <v>393735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>460843</v>
+        <v>456560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4124516420121642</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.381551955683352</v>
+        <v>0.3804976056336983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4453500127616959</v>
+        <v>0.4412105972572456</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>297187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>279829</v>
+        <v>279174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>313116</v>
+        <v>312063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7685007380625305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7236135588018437</v>
+        <v>0.7219212373528892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8096914325858467</v>
+        <v>0.8069680167162555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>318</v>
@@ -1633,19 +1633,19 @@
         <v>323911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>306713</v>
+        <v>306775</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>339760</v>
+        <v>339149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.801788908361055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.759217452802177</v>
+        <v>0.7593692533161176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8410183978542917</v>
+        <v>0.8395067311990231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>620</v>
@@ -1654,19 +1654,19 @@
         <v>621098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>595954</v>
+        <v>599340</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>641959</v>
+        <v>644086</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7855084803879444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7537083975460788</v>
+        <v>0.7579908758315805</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8118906205050117</v>
+        <v>0.8145811087749634</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>89523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73594</v>
+        <v>74647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106881</v>
+        <v>107536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2314992619374696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1903085674141531</v>
+        <v>0.1930319832837445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2763864411981561</v>
+        <v>0.278078762647111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -1704,19 +1704,19 @@
         <v>80075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64226</v>
+        <v>64837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97273</v>
+        <v>97211</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1982110916389451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1589816021457083</v>
+        <v>0.1604932688009767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2407825471978228</v>
+        <v>0.2406307466838822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>168</v>
@@ -1725,19 +1725,19 @@
         <v>169598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148737</v>
+        <v>146610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194742</v>
+        <v>191356</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2144915196120555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1881093794949882</v>
+        <v>0.1854188912250367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2462916024539211</v>
+        <v>0.2420091241684196</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>236641</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>222223</v>
+        <v>221924</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249230</v>
+        <v>249199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8088004454233223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7595197569638714</v>
+        <v>0.7585005371379948</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8518270101914343</v>
+        <v>0.8517190868630179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>345</v>
@@ -1850,19 +1850,19 @@
         <v>318631</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>307934</v>
+        <v>308106</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>326396</v>
+        <v>326410</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9291312510894369</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8979384764130928</v>
+        <v>0.8984410829801092</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9517752973608138</v>
+        <v>0.9518143896254407</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>591</v>
@@ -1871,19 +1871,19 @@
         <v>555272</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>537851</v>
+        <v>537939</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>570709</v>
+        <v>570571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8737326572155998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8463206952146333</v>
+        <v>0.8464596066035989</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8980231556222149</v>
+        <v>0.89780584552423</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>55942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43353</v>
+        <v>43384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70360</v>
+        <v>70659</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1911995545766777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1481729898085658</v>
+        <v>0.1482809131369821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2404802430361288</v>
+        <v>0.2414994628620054</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -1921,19 +1921,19 @@
         <v>24303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16538</v>
+        <v>16524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35000</v>
+        <v>34828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07086874891056305</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0482247026391863</v>
+        <v>0.04818561037455929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1020615235869076</v>
+        <v>0.1015589170198908</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1942,19 +1942,19 @@
         <v>80245</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64808</v>
+        <v>64946</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97666</v>
+        <v>97578</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1262673427844002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.101976844377785</v>
+        <v>0.1021941544757699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1536793047853666</v>
+        <v>0.1535403933964008</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>195189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186178</v>
+        <v>185940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201769</v>
+        <v>201391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9299904574403479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8870554444554191</v>
+        <v>0.8859210943175502</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9613427015486102</v>
+        <v>0.9595389877400436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -2067,19 +2067,19 @@
         <v>320026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>310420</v>
+        <v>310298</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326160</v>
+        <v>326006</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9584264717563143</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9296563665496893</v>
+        <v>0.9292922556984357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9767963363958656</v>
+        <v>0.9763359250570904</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>483</v>
@@ -2088,19 +2088,19 @@
         <v>515215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>503292</v>
+        <v>502494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>524816</v>
+        <v>524339</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9474512327481638</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9255239411325474</v>
+        <v>0.9240574838489305</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9651060876736115</v>
+        <v>0.9642288356966082</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>14694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8114</v>
+        <v>8492</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23705</v>
+        <v>23943</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07000954255965207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03865729845138982</v>
+        <v>0.04046101225995665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.112944555544581</v>
+        <v>0.1140789056824502</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2138,19 +2138,19 @@
         <v>13882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7748</v>
+        <v>7902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23488</v>
+        <v>23610</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04157352824368571</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02320366360413438</v>
+        <v>0.02366407494290961</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07034363345031071</v>
+        <v>0.07070774430156412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2159,19 +2159,19 @@
         <v>28576</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18975</v>
+        <v>19452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40499</v>
+        <v>41297</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05254876725183626</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03489391232638845</v>
+        <v>0.03577116430339179</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07447605886745251</v>
+        <v>0.07594251615106945</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1577663</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4815024443660664</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2108</v>
@@ -2284,19 +2284,19 @@
         <v>2157045</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6383305878113095</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3682</v>
@@ -2305,19 +2305,19 @@
         <v>3734709</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5611259257641759</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1698880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1644616</v>
+        <v>1634909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1759919</v>
+        <v>1753149</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5184975556339336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5019363145234522</v>
+        <v>0.4989736579627577</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.537126787530994</v>
+        <v>0.5350607224333257</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1189</v>
@@ -2355,19 +2355,19 @@
         <v>1222152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1173585</v>
+        <v>1168652</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1283573</v>
+        <v>1274849</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3616694121886906</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3472969764189004</v>
+        <v>0.345837259604257</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3798454835582315</v>
+        <v>0.3772638292589272</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2829</v>
@@ -2376,19 +2376,19 @@
         <v>2921032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2840941</v>
+        <v>2837581</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3005218</v>
+        <v>2995671</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4388740742358242</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4268407372409814</v>
+        <v>0.4263358006065365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4515227123487064</v>
+        <v>0.450088256308768</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>151917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133509</v>
+        <v>131455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172737</v>
+        <v>171366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3345109725222755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2939780060172787</v>
+        <v>0.2894549242673043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3803555816182025</v>
+        <v>0.377337484146933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -2744,19 +2744,19 @@
         <v>188737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>169155</v>
+        <v>169164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>210321</v>
+        <v>209283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.438689751917548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3931737223439965</v>
+        <v>0.3931934227322558</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4888579374940826</v>
+        <v>0.4864442893565255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>337</v>
@@ -2765,19 +2765,19 @@
         <v>340654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>312190</v>
+        <v>309812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>372361</v>
+        <v>368582</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3851916988886335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3530058397340242</v>
+        <v>0.3503167672056861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4210436211467509</v>
+        <v>0.4167701783408274</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>302229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281409</v>
+        <v>282780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>320637</v>
+        <v>322691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6654890274777245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6196444183817975</v>
+        <v>0.622662515853067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7060219939827213</v>
+        <v>0.7105450757326957</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -2815,19 +2815,19 @@
         <v>241493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219909</v>
+        <v>220947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261075</v>
+        <v>261066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.561310248082452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5111420625059173</v>
+        <v>0.5135557106434745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6068262776560035</v>
+        <v>0.6068065772677442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -2836,19 +2836,19 @@
         <v>543722</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>512015</v>
+        <v>515794</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>572186</v>
+        <v>574564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6148083011113665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5789563788532498</v>
+        <v>0.5832298216591727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6469941602659758</v>
+        <v>0.6496832327943141</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>278845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>252081</v>
+        <v>252229</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>305362</v>
+        <v>305242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4058371005416049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3668843262571528</v>
+        <v>0.3670985680583035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4444299670680807</v>
+        <v>0.4442552613724413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>282</v>
@@ -2961,19 +2961,19 @@
         <v>302003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>277492</v>
+        <v>274909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>329043</v>
+        <v>327110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4948807202858009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4547151633652273</v>
+        <v>0.4504828527778863</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5391897961956912</v>
+        <v>0.5360221318934193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>557</v>
@@ -2982,19 +2982,19 @@
         <v>580849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>547209</v>
+        <v>544302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>623283</v>
+        <v>616439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4477222254911503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4217922032121084</v>
+        <v>0.4195513040206083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4804310650508791</v>
+        <v>0.475155332859722</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>408242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>381725</v>
+        <v>381845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435006</v>
+        <v>434858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5941628994583952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5555700329319194</v>
+        <v>0.555744738627559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6331156737428473</v>
+        <v>0.6329014319416966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>289</v>
@@ -3032,19 +3032,19 @@
         <v>308252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281212</v>
+        <v>283145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332763</v>
+        <v>335346</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5051192797141991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.460810203804309</v>
+        <v>0.4639778681065808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5452848366347728</v>
+        <v>0.5495171472221138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>681</v>
@@ -3053,19 +3053,19 @@
         <v>716493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674059</v>
+        <v>680903</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>750133</v>
+        <v>753040</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5522777745088496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5195689349491208</v>
+        <v>0.5248446671402781</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5782077967878915</v>
+        <v>0.5804486959793917</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>293889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>267182</v>
+        <v>265850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>318529</v>
+        <v>321080</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4310082354009663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3918410753057985</v>
+        <v>0.3898875566429528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4671444336572629</v>
+        <v>0.4708870741938809</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>387</v>
@@ -3178,19 +3178,19 @@
         <v>412126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>384677</v>
+        <v>386558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>438134</v>
+        <v>439002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5797647110053603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5411509110727718</v>
+        <v>0.5437967826617296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6163524546222131</v>
+        <v>0.617573042559176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>664</v>
@@ -3199,19 +3199,19 @@
         <v>706014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>661076</v>
+        <v>669865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>745290</v>
+        <v>750578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5069345328440297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4746682209463289</v>
+        <v>0.4809786732483818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5351359168388793</v>
+        <v>0.5389324914438151</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>387974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363334</v>
+        <v>360783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414681</v>
+        <v>416013</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5689917645990337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5328555663427371</v>
+        <v>0.529112925806119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6081589246942016</v>
+        <v>0.6101124433570472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>280</v>
@@ -3249,19 +3249,19 @@
         <v>298724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272716</v>
+        <v>271848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326173</v>
+        <v>324292</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4202352889946397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3836475453777867</v>
+        <v>0.3824269574408239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4588490889272283</v>
+        <v>0.4562032173382702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -3270,19 +3270,19 @@
         <v>686698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647422</v>
+        <v>642134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>731636</v>
+        <v>722847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4930654671559703</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4648640831611207</v>
+        <v>0.4610675085561847</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.525331779053671</v>
+        <v>0.5190213267516181</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>319924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>293827</v>
+        <v>291676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>348850</v>
+        <v>348264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5205255156324046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.47806456337318</v>
+        <v>0.4745656760327457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5675890101607888</v>
+        <v>0.5666365514788363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -3395,19 +3395,19 @@
         <v>451585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>428173</v>
+        <v>426873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>473633</v>
+        <v>474144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.732855263691832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6948612508301776</v>
+        <v>0.6927510639691753</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7686371571126522</v>
+        <v>0.7694651547526966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>684</v>
@@ -3416,19 +3416,19 @@
         <v>771509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>734844</v>
+        <v>734964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>810640</v>
+        <v>806541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6268268824802508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5970379384976335</v>
+        <v>0.5971359134329759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6586198262028748</v>
+        <v>0.6552892693732503</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>294693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265767</v>
+        <v>266353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320790</v>
+        <v>322941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4794744843675954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4324109898392113</v>
+        <v>0.4333634485211637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.52193543662682</v>
+        <v>0.5254343239672542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -3466,19 +3466,19 @@
         <v>164614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142566</v>
+        <v>142055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188026</v>
+        <v>189326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.267144736308168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2313628428873478</v>
+        <v>0.2305348452473034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3051387491698224</v>
+        <v>0.3072489360308244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -3487,19 +3487,19 @@
         <v>459307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>420176</v>
+        <v>424275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495972</v>
+        <v>495852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3731731175197493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3413801737971252</v>
+        <v>0.3447107306267497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4029620615023665</v>
+        <v>0.402864086567024</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>332914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>314281</v>
+        <v>314455</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>350082</v>
+        <v>350729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7752478133997994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7318589874051988</v>
+        <v>0.7322622667979576</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8152278612446071</v>
+        <v>0.8167340660343564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -3612,19 +3612,19 @@
         <v>393510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>374193</v>
+        <v>376515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>405216</v>
+        <v>407350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.878762488871121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8356259528080151</v>
+        <v>0.8408097319654012</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9049038040894937</v>
+        <v>0.9096700556769359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -3633,19 +3633,19 @@
         <v>726424</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>700395</v>
+        <v>701985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>749051</v>
+        <v>746967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8280890478140792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7984178593280227</v>
+        <v>0.8002299583375412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8538830946471857</v>
+        <v>0.8515071775554285</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>96515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79347</v>
+        <v>78700</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115148</v>
+        <v>114974</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2247521866002006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1847721387553928</v>
+        <v>0.1832659339656434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2681410125948006</v>
+        <v>0.2677377332020421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -3683,19 +3683,19 @@
         <v>54290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42584</v>
+        <v>40450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73607</v>
+        <v>71285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1212375111288791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09509619591050623</v>
+        <v>0.0903299443230639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1643740471919846</v>
+        <v>0.1591902680345984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>137</v>
@@ -3704,19 +3704,19 @@
         <v>150805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>128178</v>
+        <v>130262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>176834</v>
+        <v>175244</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1719109521859207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1461169053528142</v>
+        <v>0.1484928224445715</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2015821406719773</v>
+        <v>0.1997700416624588</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>291647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>280539</v>
+        <v>281198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>298895</v>
+        <v>298813</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9414471011054127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9055884352625061</v>
+        <v>0.9077167876370724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9648421144398116</v>
+        <v>0.964579552412726</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>326</v>
@@ -3829,19 +3829,19 @@
         <v>335068</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>325549</v>
+        <v>324898</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342315</v>
+        <v>342871</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9465306816044331</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9196408918714796</v>
+        <v>0.9178023747952552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.967002328834896</v>
+        <v>0.9685740922408673</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>591</v>
@@ -3850,19 +3850,19 @@
         <v>626715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>614239</v>
+        <v>612891</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>637235</v>
+        <v>637286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9441581819543831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9253621285716332</v>
+        <v>0.9233313400237737</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9600064969969331</v>
+        <v>0.9600830565779078</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>18139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10891</v>
+        <v>10973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29247</v>
+        <v>28588</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05855289889458731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03515788556018829</v>
+        <v>0.03542044758727406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09441156473749387</v>
+        <v>0.0922832123629274</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -3900,19 +3900,19 @@
         <v>18928</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11681</v>
+        <v>11125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28447</v>
+        <v>29098</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05346931839556688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03299767116510424</v>
+        <v>0.03142590775913279</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08035910812852064</v>
+        <v>0.08219762520474522</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -3921,19 +3921,19 @@
         <v>37067</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26547</v>
+        <v>26496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49543</v>
+        <v>50891</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05584181804561698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03999350300306696</v>
+        <v>0.03991694342209189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07463787142836675</v>
+        <v>0.0766686599762261</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>237815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229456</v>
+        <v>230019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243456</v>
+        <v>243683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.951828092195075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9183727286453014</v>
+        <v>0.9206265729802401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.974405042022353</v>
+        <v>0.9753129114328181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>341</v>
@@ -4046,19 +4046,19 @@
         <v>378794</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>370895</v>
+        <v>369698</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>384435</v>
+        <v>383545</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9738150952530796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9535081872728508</v>
+        <v>0.9504326469742509</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9883181498496737</v>
+        <v>0.9860311226169403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>552</v>
@@ -4067,19 +4067,19 @@
         <v>616609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>604629</v>
+        <v>604674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>624812</v>
+        <v>624830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.96521582352304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9464633917866186</v>
+        <v>0.9465331511986588</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9780563496504764</v>
+        <v>0.9780843719033618</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>12036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6395</v>
+        <v>6168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20395</v>
+        <v>19832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04817190780492503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02559495797764696</v>
+        <v>0.02468708856718203</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08162727135469856</v>
+        <v>0.07937342701975997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -4117,19 +4117,19 @@
         <v>10185</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4544</v>
+        <v>5434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18084</v>
+        <v>19281</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02618490474692038</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01168185015032606</v>
+        <v>0.01396887738305963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.046491812727149</v>
+        <v>0.04956735302574902</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -4138,19 +4138,19 @@
         <v>22221</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14018</v>
+        <v>14000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34201</v>
+        <v>34156</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03478417647695996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02194365034952362</v>
+        <v>0.02191562809663845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05353660821338132</v>
+        <v>0.05346684880134133</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1906951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5564849286974062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2273</v>
@@ -4263,19 +4263,19 @@
         <v>2461823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6918519034370659</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4047</v>
@@ -4284,19 +4284,19 @@
         <v>4368774</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6254429060395802</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1519828</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1465346</v>
+        <v>1460652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1580608</v>
+        <v>1586747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4435150713025939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4276160400644284</v>
+        <v>0.4262464835607371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4612517544180944</v>
+        <v>0.4630433565982486</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1025</v>
@@ -4334,19 +4334,19 @@
         <v>1096486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1040692</v>
+        <v>1036370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1150360</v>
+        <v>1152501</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3081480965629341</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2924681570355062</v>
+        <v>0.2912535581693684</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.323288280027215</v>
+        <v>0.32389008203935</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2460</v>
@@ -4355,19 +4355,19 @@
         <v>2616314</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2534650</v>
+        <v>2536553</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2699170</v>
+        <v>2706356</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3745570939604199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3628659064999508</v>
+        <v>0.3631383152084686</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3864188612925886</v>
+        <v>0.3874476027366814</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>136525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117805</v>
+        <v>117791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154865</v>
+        <v>155787</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3254764033653566</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2808471725933873</v>
+        <v>0.2808133260832278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3691987490636509</v>
+        <v>0.3713955200987749</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -4723,19 +4723,19 @@
         <v>145839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128076</v>
+        <v>127750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166161</v>
+        <v>165114</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3685091926067206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3236257005879326</v>
+        <v>0.3228001496471222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4198570007593986</v>
+        <v>0.4172114368907685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>276</v>
@@ -4744,19 +4744,19 @@
         <v>282365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>257059</v>
+        <v>257237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>309249</v>
+        <v>310949</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3463670627999069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3153258679935768</v>
+        <v>0.315544094332433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3793445923482727</v>
+        <v>0.3814305758226465</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>282938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264598</v>
+        <v>263676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301658</v>
+        <v>301672</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6745235966346435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6308012509363492</v>
+        <v>0.628604479901225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7191528274066128</v>
+        <v>0.7191866739167722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -4794,19 +4794,19 @@
         <v>249916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229594</v>
+        <v>230641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267679</v>
+        <v>268005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6314908073932795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5801429992406014</v>
+        <v>0.5827885631092314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6763742994120674</v>
+        <v>0.6771998503528778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>521</v>
@@ -4815,19 +4815,19 @@
         <v>532853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>505969</v>
+        <v>504269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>558159</v>
+        <v>557981</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6536329372000931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6206554076517274</v>
+        <v>0.6185694241773535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6846741320064231</v>
+        <v>0.684455905667567</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>178076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156733</v>
+        <v>156009</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200503</v>
+        <v>201561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3015705686074016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2654265649301081</v>
+        <v>0.2641993554569237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.339550631170492</v>
+        <v>0.3413421668326283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -4940,19 +4940,19 @@
         <v>236044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>212571</v>
+        <v>212515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256819</v>
+        <v>258232</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.418857021132751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3772044701589593</v>
+        <v>0.377104560031727</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4557214983003477</v>
+        <v>0.4582285454759631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>413</v>
@@ -4961,19 +4961,19 @@
         <v>414121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>381534</v>
+        <v>378621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>445334</v>
+        <v>444658</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3588441835718227</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3306073713736475</v>
+        <v>0.3280829994958542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3858910339294582</v>
+        <v>0.3853052475065821</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>412420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>389993</v>
+        <v>388935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433763</v>
+        <v>434487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6984294313925984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.660449368829508</v>
+        <v>0.6586578331673717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7345734350698918</v>
+        <v>0.7358006445430761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -5011,19 +5011,19 @@
         <v>327500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306725</v>
+        <v>305312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350973</v>
+        <v>351029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.581142978867249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5442785016996521</v>
+        <v>0.5417714545240369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6227955298410405</v>
+        <v>0.622895439968273</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>733</v>
@@ -5032,19 +5032,19 @@
         <v>739919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>708706</v>
+        <v>709382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>772506</v>
+        <v>775419</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6411558164281773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.614108966070542</v>
+        <v>0.6146947524934179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6693926286263527</v>
+        <v>0.6719170005041458</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>243901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219827</v>
+        <v>217866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270290</v>
+        <v>268876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3645221845567714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3285423153236489</v>
+        <v>0.3256123252847289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4039629349184028</v>
+        <v>0.4018497243474124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>330</v>
@@ -5157,19 +5157,19 @@
         <v>331784</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>305988</v>
+        <v>306241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>356087</v>
+        <v>354585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.501649595834472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.462646441469178</v>
+        <v>0.4630294170434556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5383947954679714</v>
+        <v>0.5361241974644926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>561</v>
@@ -5178,19 +5178,19 @@
         <v>575685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>539074</v>
+        <v>536906</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>610802</v>
+        <v>610637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4326885500068658</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4051716714172451</v>
+        <v>0.4035423669463531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4590826612809778</v>
+        <v>0.4589586325659362</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>425196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398807</v>
+        <v>400221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>449270</v>
+        <v>451231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6354778154432287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5960370650815972</v>
+        <v>0.5981502756525876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6714576846763511</v>
+        <v>0.6743876747152711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>335</v>
@@ -5228,19 +5228,19 @@
         <v>329602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305299</v>
+        <v>306801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>355398</v>
+        <v>355145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4983504041655279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4616052045320287</v>
+        <v>0.4638758025355075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5373535585308222</v>
+        <v>0.5369705829565445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>742</v>
@@ -5249,19 +5249,19 @@
         <v>754798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719681</v>
+        <v>719846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>791409</v>
+        <v>793577</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5673114499931341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5409173387190223</v>
+        <v>0.5410413674340637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5948283285827548</v>
+        <v>0.5964576330536469</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>356091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>329912</v>
+        <v>329448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>383551</v>
+        <v>383320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.551183440526595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.510661825918315</v>
+        <v>0.5099428673095304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5936876890421543</v>
+        <v>0.593329813571005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>371</v>
@@ -5374,19 +5374,19 @@
         <v>401422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>377063</v>
+        <v>378532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>425720</v>
+        <v>426379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6184499903073331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5809210730343248</v>
+        <v>0.5831843851205457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6558853691756353</v>
+        <v>0.6568997314954887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>691</v>
@@ -5395,19 +5395,19 @@
         <v>757513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>721923</v>
+        <v>719297</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>793332</v>
+        <v>793985</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5848953665828828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5574159984913428</v>
+        <v>0.5553883611248239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6125523300069285</v>
+        <v>0.6130563190533858</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>289957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>262497</v>
+        <v>262728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316136</v>
+        <v>316600</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4488165594734051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4063123109578456</v>
+        <v>0.4066701864289949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4893381740816848</v>
+        <v>0.4900571326904693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -5445,19 +5445,19 @@
         <v>247655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223357</v>
+        <v>222698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>272014</v>
+        <v>270545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3815500096926669</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3441146308243647</v>
+        <v>0.3431002685045114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4190789269656752</v>
+        <v>0.4168156148794546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>493</v>
@@ -5466,19 +5466,19 @@
         <v>537612</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>501793</v>
+        <v>501140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573202</v>
+        <v>575828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4151046334171172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3874476699930715</v>
+        <v>0.3869436809466142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4425840015086572</v>
+        <v>0.4446116388751761</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>319849</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298163</v>
+        <v>297872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>341678</v>
+        <v>341260</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6692544103627357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6238783653770371</v>
+        <v>0.6232709074944185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7149297065307654</v>
+        <v>0.7140547076935959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>361</v>
@@ -5591,19 +5591,19 @@
         <v>411884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>394405</v>
+        <v>392929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>430812</v>
+        <v>428431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8289927875175421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7938130599751748</v>
+        <v>0.7908420364100959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8670884162309143</v>
+        <v>0.8622955620278038</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>646</v>
@@ -5612,19 +5612,19 @@
         <v>731733</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>704579</v>
+        <v>702649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>759417</v>
+        <v>758491</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7506747427950333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7228174029516119</v>
+        <v>0.7208376648432525</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7790756693390564</v>
+        <v>0.7781250514131164</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>158069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136240</v>
+        <v>136658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179755</v>
+        <v>180046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3307455896372644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2850702934692346</v>
+        <v>0.285945292306404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3761216346229629</v>
+        <v>0.3767290925055813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -5662,19 +5662,19 @@
         <v>84965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66037</v>
+        <v>68418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102444</v>
+        <v>103920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1710072124824579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1329115837690857</v>
+        <v>0.1377044379721962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2061869400248251</v>
+        <v>0.2091579635899041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -5683,19 +5683,19 @@
         <v>243034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215350</v>
+        <v>216276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270188</v>
+        <v>272118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2493252572049667</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2209243306609439</v>
+        <v>0.2218749485868838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2771825970483882</v>
+        <v>0.2791623351567474</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>297436</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>284366</v>
+        <v>283694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>307953</v>
+        <v>306888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8896479955042723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8505543772942203</v>
+        <v>0.848544509526633</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.921103729438041</v>
+        <v>0.9179205650017019</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>325</v>
@@ -5808,19 +5808,19 @@
         <v>344940</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>331576</v>
+        <v>332515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>355290</v>
+        <v>355139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.913114564746068</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8777369592675656</v>
+        <v>0.8802245232478239</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9405118679719862</v>
+        <v>0.9401125116968108</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>613</v>
@@ -5829,19 +5829,19 @@
         <v>642376</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>625107</v>
+        <v>623606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>656573</v>
+        <v>657134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9020969180739237</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8778458655982786</v>
+        <v>0.8757384451919953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9220334308506248</v>
+        <v>0.9228215135843281</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>36894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26377</v>
+        <v>27442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49964</v>
+        <v>50636</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1103520044957277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07889627056195898</v>
+        <v>0.08207943499829802</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1494456227057794</v>
+        <v>0.151455490473367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -5879,19 +5879,19 @@
         <v>32822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22472</v>
+        <v>22623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46186</v>
+        <v>45247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08688543525393198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05948813202801331</v>
+        <v>0.059887488303189</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1222630407324334</v>
+        <v>0.1197754767521757</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -5900,19 +5900,19 @@
         <v>69716</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55519</v>
+        <v>54958</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86985</v>
+        <v>88486</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09790308192607634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07796656914937515</v>
+        <v>0.07717848641567178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1221541344017214</v>
+        <v>0.1242615548080047</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>240756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>231544</v>
+        <v>232867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>246806</v>
+        <v>246517</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9368003224852935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9009573791860278</v>
+        <v>0.9061045620273481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9603421138245474</v>
+        <v>0.9592187503857472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>291</v>
@@ -6025,19 +6025,19 @@
         <v>387423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>377414</v>
+        <v>375921</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>392687</v>
+        <v>393709</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.968148195328961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9431372224118776</v>
+        <v>0.9394067124852717</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9813023143016942</v>
+        <v>0.983856030453479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>574</v>
@@ -6046,19 +6046,19 @@
         <v>628179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>614936</v>
+        <v>615843</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>636710</v>
+        <v>637071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9558889969024024</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9357380909799362</v>
+        <v>0.9371172265280413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9688704653978544</v>
+        <v>0.9694199867055907</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>16242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10192</v>
+        <v>10481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25454</v>
+        <v>24131</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06319967751470641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03965788617545279</v>
+        <v>0.04078124961425303</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09904262081397225</v>
+        <v>0.09389543797265208</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -6096,19 +6096,19 @@
         <v>12746</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7482</v>
+        <v>6460</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22755</v>
+        <v>24248</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03185180467103899</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01869768569830586</v>
+        <v>0.01614396954652093</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05686277758812263</v>
+        <v>0.06059328751472822</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -6117,19 +6117,19 @@
         <v>28988</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20457</v>
+        <v>20096</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42231</v>
+        <v>41324</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04411100309759767</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03112953460214552</v>
+        <v>0.03058001329440923</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06426190902006382</v>
+        <v>0.06288277347195873</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1772634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5222306839753268</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2068</v>
@@ -6242,19 +6242,19 @@
         <v>2259337</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6374128260494004</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3774</v>
@@ -6263,19 +6263,19 @@
         <v>4031970</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5810683081933377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1621716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1563982</v>
+        <v>1560273</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1681975</v>
+        <v>1680094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4777693160246733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4607603051349813</v>
+        <v>0.4596677792462608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.495522081878609</v>
+        <v>0.4949676871926467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1270</v>
@@ -6313,19 +6313,19 @@
         <v>1285205</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1230251</v>
+        <v>1225497</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1344293</v>
+        <v>1341178</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3625871739505996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3470833033829093</v>
+        <v>0.3457419613161339</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.379257038426916</v>
+        <v>0.3783784738106169</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2795</v>
@@ -6334,19 +6334,19 @@
         <v>2906922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2827567</v>
+        <v>2824213</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2993683</v>
+        <v>2991991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4189316918066623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4074954264947324</v>
+        <v>0.4070121430364915</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4314353545791844</v>
+        <v>0.4311914240919867</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>96843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72096</v>
+        <v>72643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126381</v>
+        <v>124675</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2374814596405259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1767947851364354</v>
+        <v>0.178137196922569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3099141060164138</v>
+        <v>0.3057305899729763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -6702,19 +6702,19 @@
         <v>102244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80836</v>
+        <v>80033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128508</v>
+        <v>126969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2820417028197728</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2229883570392488</v>
+        <v>0.2207734254707202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3544935859776003</v>
+        <v>0.3502476259311847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -6723,19 +6723,19 @@
         <v>199087</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160754</v>
+        <v>162050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234693</v>
+        <v>236264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2584518817082507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2086888579975766</v>
+        <v>0.2103711458926146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3046757324004869</v>
+        <v>0.3067150014078001</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>310950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281412</v>
+        <v>283118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>335697</v>
+        <v>335150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7625185403594741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.690085893983586</v>
+        <v>0.6942694100270239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8232052148635642</v>
+        <v>0.8218628030774309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -6773,19 +6773,19 @@
         <v>260268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234004</v>
+        <v>235543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281676</v>
+        <v>282479</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7179582971802272</v>
+        <v>0.7179582971802271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6455064140223997</v>
+        <v>0.6497523740688154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7770116429607511</v>
+        <v>0.7792265745292798</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -6794,19 +6794,19 @@
         <v>571218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>535612</v>
+        <v>534041</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>609551</v>
+        <v>608255</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7415481182917493</v>
+        <v>0.7415481182917492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6953242675995133</v>
+        <v>0.6932849985921998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7913111420024235</v>
+        <v>0.7896288541073854</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>128500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102496</v>
+        <v>104700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153316</v>
+        <v>157960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2694543500679172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2149264302572136</v>
+        <v>0.2195480202147592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3214923513367843</v>
+        <v>0.3312303321265127</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -6919,19 +6919,19 @@
         <v>133062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114148</v>
+        <v>112632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156341</v>
+        <v>157412</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2652042485604325</v>
+        <v>0.2652042485604324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2275084195932635</v>
+        <v>0.224485119345189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3116016818255481</v>
+        <v>0.3137360386669927</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -6940,19 +6940,19 @@
         <v>261562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233300</v>
+        <v>229983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>300124</v>
+        <v>296891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2672753548978231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.238395737554334</v>
+        <v>0.2350066036686169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3066799737591976</v>
+        <v>0.3033758068052623</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>348390</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323574</v>
+        <v>318930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374394</v>
+        <v>372190</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7305456499320827</v>
+        <v>0.7305456499320828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6785076486632158</v>
+        <v>0.6687696678734872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7850735697427866</v>
+        <v>0.7804519797852407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -6990,19 +6990,19 @@
         <v>368671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345392</v>
+        <v>344321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>387585</v>
+        <v>389101</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7347957514395674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6883983181744519</v>
+        <v>0.6862639613330072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7724915804067366</v>
+        <v>0.7755148806548109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>560</v>
@@ -7011,19 +7011,19 @@
         <v>717061</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678499</v>
+        <v>681732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745323</v>
+        <v>748640</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7327246451021769</v>
+        <v>0.7327246451021771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6933200262408025</v>
+        <v>0.6966241931947373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7616042624456665</v>
+        <v>0.7649933963313827</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>150445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128537</v>
+        <v>128315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176600</v>
+        <v>172029</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2423267216875868</v>
+        <v>0.2423267216875867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2070383807093275</v>
+        <v>0.2066807396189207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2844554797918989</v>
+        <v>0.2770921080230686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>273</v>
@@ -7136,19 +7136,19 @@
         <v>197136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179136</v>
+        <v>177425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219373</v>
+        <v>218332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3163326154032729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2874484924477669</v>
+        <v>0.2847026213562727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.352014776349604</v>
+        <v>0.3503438910223581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>410</v>
@@ -7157,19 +7157,19 @@
         <v>347581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>315844</v>
+        <v>317307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376408</v>
+        <v>377835</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2793997406378985</v>
+        <v>0.2793997406378984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2538882607522759</v>
+        <v>0.2550642120118159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3025719790876288</v>
+        <v>0.3037189393339024</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>470392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444237</v>
+        <v>448808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492300</v>
+        <v>492522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7576732783124133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.715544520208101</v>
+        <v>0.7229078919769315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7929616192906725</v>
+        <v>0.7933192603810792</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>575</v>
@@ -7207,19 +7207,19 @@
         <v>426057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>403820</v>
+        <v>404861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>444057</v>
+        <v>445768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.683667384596727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6479852236503956</v>
+        <v>0.6496561089776414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7125515075522331</v>
+        <v>0.7152973786437272</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>984</v>
@@ -7228,19 +7228,19 @@
         <v>896448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>867621</v>
+        <v>866194</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>928185</v>
+        <v>926722</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7206002593621015</v>
+        <v>0.7206002593621014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6974280209123713</v>
+        <v>0.6962810606660974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7461117392477242</v>
+        <v>0.7449357879881842</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>268258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>243942</v>
+        <v>239799</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>296128</v>
+        <v>292450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3828885574223257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3481813306817495</v>
+        <v>0.342268300696483</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4226669197434139</v>
+        <v>0.4174177852352314</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>492</v>
@@ -7353,19 +7353,19 @@
         <v>318176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297344</v>
+        <v>294463</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338040</v>
+        <v>338333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4317848510108278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4035137696945859</v>
+        <v>0.3996041894343027</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4587409439095173</v>
+        <v>0.4591387969575016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>745</v>
@@ -7374,19 +7374,19 @@
         <v>586435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>550817</v>
+        <v>550185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>618312</v>
+        <v>618781</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4079535479940266</v>
+        <v>0.4079535479940267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3831758434129177</v>
+        <v>0.3827361232112651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.430129179035863</v>
+        <v>0.4304551486124448</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>432359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404489</v>
+        <v>408167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>456675</v>
+        <v>460818</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6171114425776744</v>
+        <v>0.6171114425776743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.577333080256586</v>
+        <v>0.5825822147647687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6518186693182504</v>
+        <v>0.6577316993035172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -7424,19 +7424,19 @@
         <v>418710</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398846</v>
+        <v>398553</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439542</v>
+        <v>442423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5682151489891722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5412590560904826</v>
+        <v>0.5408612030424986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.596486230305414</v>
+        <v>0.6003958105656974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1061</v>
@@ -7445,19 +7445,19 @@
         <v>851069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>819192</v>
+        <v>818723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>886687</v>
+        <v>887319</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5920464520059732</v>
+        <v>0.5920464520059733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5698708209641369</v>
+        <v>0.5695448513875554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6168241565870823</v>
+        <v>0.617263876788735</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>313355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>292391</v>
+        <v>290360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>337026</v>
+        <v>336416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5142481077967849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4798444218381973</v>
+        <v>0.4765110144842476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5530950699181965</v>
+        <v>0.5520936124271466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>546</v>
@@ -7570,19 +7570,19 @@
         <v>336355</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>317670</v>
+        <v>317229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354578</v>
+        <v>355434</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5524387147101066</v>
+        <v>0.5524387147101067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5217494449957987</v>
+        <v>0.5210253594776559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5823688910266988</v>
+        <v>0.583774266198456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>886</v>
@@ -7591,19 +7591,19 @@
         <v>649711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>619695</v>
+        <v>617672</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>682566</v>
+        <v>678198</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5333357141512013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5086965294697007</v>
+        <v>0.5070361083116904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5603062811218591</v>
+        <v>0.556720158204548</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>295991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>272320</v>
+        <v>272930</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316955</v>
+        <v>318986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.485751892203215</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4469049300818035</v>
+        <v>0.4479063875728534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5201555781618028</v>
+        <v>0.5234889855157523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>456</v>
@@ -7641,19 +7641,19 @@
         <v>272500</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>254277</v>
+        <v>253421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>291185</v>
+        <v>291626</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4475612852898933</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4176311089733013</v>
+        <v>0.4162257338015441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4782505550042013</v>
+        <v>0.4789746405223442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>779</v>
@@ -7662,19 +7662,19 @@
         <v>568491</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>535636</v>
+        <v>540004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>598507</v>
+        <v>600530</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4666642858487987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4396937188781408</v>
+        <v>0.4432798417954519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4913034705302992</v>
+        <v>0.4929638916883095</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>218401</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>200890</v>
+        <v>201326</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>236691</v>
+        <v>235350</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5365074019942659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4934910894087041</v>
+        <v>0.4945617170758235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.581436833255535</v>
+        <v>0.5781425810534443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>539</v>
@@ -7787,19 +7787,19 @@
         <v>288804</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>273672</v>
+        <v>274135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>302691</v>
+        <v>303021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.657618920674797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6231636070784067</v>
+        <v>0.624216235878774</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6892408890237122</v>
+        <v>0.6899922373908337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>848</v>
@@ -7808,19 +7808,19 @@
         <v>507205</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>483425</v>
+        <v>483896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>530393</v>
+        <v>528297</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5993592076840105</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5712587227982755</v>
+        <v>0.5718147792495932</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6267603714241036</v>
+        <v>0.624282968560528</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>188679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170389</v>
+        <v>171730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206190</v>
+        <v>205754</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4634925980057341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.418563166744465</v>
+        <v>0.4218574189465559</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.506508910591296</v>
+        <v>0.5054382829241765</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>288</v>
@@ -7858,19 +7858,19 @@
         <v>150362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136475</v>
+        <v>136145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165494</v>
+        <v>165031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3423810793252031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3107591109762878</v>
+        <v>0.3100077626091663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3768363929215934</v>
+        <v>0.3757837641212262</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>549</v>
@@ -7879,19 +7879,19 @@
         <v>339041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315853</v>
+        <v>317949</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362821</v>
+        <v>362350</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4006407923159894</v>
+        <v>0.4006407923159895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3732396285758965</v>
+        <v>0.3757170314394722</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4287412772017247</v>
+        <v>0.4281852207504069</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>222178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>208218</v>
+        <v>208707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235293</v>
+        <v>235612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7162472124291326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6712411251392673</v>
+        <v>0.672819571472893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7585255677081859</v>
+        <v>0.75955452978511</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>676</v>
@@ -8004,19 +8004,19 @@
         <v>353012</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>338540</v>
+        <v>340023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>366832</v>
+        <v>366548</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7598035964460587</v>
+        <v>0.7598035964460585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7286547240804704</v>
+        <v>0.7318472350487464</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7895500983678455</v>
+        <v>0.7889390909910203</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1009</v>
@@ -8025,19 +8025,19 @@
         <v>575190</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>557695</v>
+        <v>556775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>595539</v>
+        <v>595629</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7423655594005633</v>
+        <v>0.7423655594005631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7197858451587804</v>
+        <v>0.7185982653893217</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7686282792106718</v>
+        <v>0.7687454524928246</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>88020</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74905</v>
+        <v>74586</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101980</v>
+        <v>101491</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2837527875708672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2414744322918141</v>
+        <v>0.2404454702148899</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3287588748607325</v>
+        <v>0.3271804285271068</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>205</v>
@@ -8075,19 +8075,19 @@
         <v>111597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97777</v>
+        <v>98061</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>126069</v>
+        <v>124586</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2401964035539413</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2104499016321546</v>
+        <v>0.2110609090089796</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2713452759195296</v>
+        <v>0.2681527649512537</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>330</v>
@@ -8096,19 +8096,19 @@
         <v>199617</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>179268</v>
+        <v>179178</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>217112</v>
+        <v>218032</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2576344405994369</v>
+        <v>0.2576344405994368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2313717207893282</v>
+        <v>0.2312545475071754</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2802141548412194</v>
+        <v>0.2814017346106784</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1397982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3957193747553512</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2700</v>
@@ -8221,19 +8221,19 @@
         <v>1728788</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4626196595747554</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4194</v>
@@ -8242,19 +8242,19 @@
         <v>3126771</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2134780</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2071734</v>
+        <v>2071784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2202778</v>
+        <v>2199862</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.604280625244649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5864346004291962</v>
+        <v>0.5864488878549418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6235284688880118</v>
+        <v>0.6227030245056577</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2667</v>
@@ -8292,19 +8292,19 @@
         <v>2008166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1955267</v>
+        <v>1954472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2060641</v>
+        <v>2065780</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5373803404252445</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5232248660703478</v>
+        <v>0.5230119342755294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5514225960278045</v>
+        <v>0.5527977213484703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4549</v>
@@ -8313,19 +8313,19 @@
         <v>4142945</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4053769</v>
+        <v>4054511</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4223500</v>
+        <v>4230282</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5698909330598591</v>
+        <v>0.5698909330598588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5576241250650359</v>
+        <v>0.5577262284488845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5809718414103436</v>
+        <v>0.5819047065402284</v>
       </c>
     </row>
     <row r="27">
